--- a/500all/speech_level/speeches_CHRG-114hhrg95421.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95421.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. Committee on Oversight and Government Reform will come to order. Without objection, the chair is authorized to declare a recess at any time.    We're meeting today to talk about the United States Secret Service and the accountability for the March 4, 2015, incident. On March 4, two senior Secret Service special agents--one had the title of Deputy Special Agent in Charge, the Presidential Protective Detail, that is Mr. Connolly, and the other one had a title of Assistant to the Special Agency in Charge for the Washington field office, that would be Mr. George Ogilvie--the allegation and the concern was that they drove through a criminal scene investigation of a potential bomb at the White House.    Following the incident, there were allegations that the two agents were intoxicated after being at a bar downtown for a retirement party. Most concerning, however, was the allegation neither agent was given a sobriety test, nor were the agents reprimanded in any way.    Part of the concern was what happened in this potential bomb scene, and what did they do about it, what did the supervisors know, when did they know it, and how did they report it up the chain of command? Instead, everyone involved was told to go home and pretend like nothing happened.    To get a better sense of what happened on March 4, Ranking Member Cummings and I met with Secret Service Director Clancy. Director Clancy could not answer our questions. Next, Mr. Cummings and I scheduled a public hearing on the incident. At the hearing, Director Clancy said he could not answer the questions. Instead, he deferred to the Department of Homeland Security Office of Inspector General, who was investigating the matter.    That investigation is now complete, and we're pleased to have Mr. Roth here with us today to talk about the conclusions of that investigation.    Now that the facts are in, it is time for accountability. The inspector general determined it was more likely than not both Agents Connolly and Ogilvie's judgment was impaired by alcohol. Since a sobriety test wasn't given to either agent the night of March 4, the inspector general came to the conclusion based on the facts. These included: Both Connolly and Ogilvie spent 5 hours in a bar running up a bar tab that included 14 drinks after 2 hours of an open bar, and the objective behavior of the two experienced Secret Service agents who should have known better.    The agents' impaired judgment resulted in them driving, ``into a crime scene inches from what the rest of the Secret Service was treating as a potential explosive device and which, under different circumstances, could have been----    [Disturbance in hearing room.]</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman.    And I want to thank you, General Roth, and your team for all your hard work on this investigation from the very beginning. You worked with us and met with us, and we took your guidance, and we really appreciate all that you all have done.    You all started immediately after receiving these allegations on March 12, a week after the incident, and finished them in less than 8 weeks, and that says a lot. In that time, they conducted an impressive 48 interviews and obtained a wide variety of documents and other materials.    The report released by the inspector general confirms some key allegations, such as the claim that two agents, Mr. Connolly and Mr. Ogilvie, in fact had been drinking before driving a government vehicle to the White House and then driving their government vehicles home.    The report also debunks other allegations. It concludes, for example, that there is, ``no evidence that the video of the incident was intentionally deleted or destroyed.''    This was a model of how an investigation should--should--be conducted, and it demonstrates why Congress and this committee in particular rely so heavily on the work of our IGs.    Unfortunately, this report makes clear that there is still much work to be done to improve the culture at the Secret Service. At a previous hearing on September 30 of last year, I expressed grave concern with a Secret Service culture that seems to punish those who raise concerns, a culture in which employees are afraid to report incidents up the chain of command.    At the time, we were discussing an incident in 2011 when multiple shots were fired at the White House. One officer on the scene believed bullets had hit the White House, but she feared the consequences of disputing her superiors. As a result, it was not discovered until 4 days later that the White House had been struck 7 times.    The inspector general's report indicates that this cultural problem is indeed widespread. For example, the report highlights, ``the Secret Service's reputation for punishing or ignoring those who would further investigate or report such violations.''    According to the inspector general's report, some officers relayed that the watch commander at the scene on the night of the incident raised concerns. According to one officer, the watch commander told his colleagues that the agents who drove into the barricade were, ``hammered.'' According to that officer, however, the watch commander said ordering a sobriety test would have been, ``a career killer.'' Therefore no sobriety test was done, and both agents drove their government vehicles home after a night of drinking.    The inspector general's report concludes, ``The watch commander's actions must be considered in light of the vast disparity and rank between the watch commander and Connolly, who was in the watch commander's chain of command.''    I'm also extremely concerned, because just 2 days ago, our committee conducted a key interview that further corroborates this view. Committee staff interviewed Alfonso Dyson, the Deputy Chief of the Uniformed Division, who manages more than 600 officers. Mr. Dyson admitted to our committee staff that he had two telephone calls with Mr. Connolly on the night of the incident, one while Mr. Connolly was in the middle of the suspicious package scene and another as Mr. Connolly was driving home later that night.    In those calls, Mr. Dyson warned Mr. Connolly that the watch commander, ``was going to make it a problem.'' Mr. Dyson also admitted that he told Mr. Connolly that the watch commander might cause trouble for him. Mr. Dyson stated, ``He was going to stir the pot, he was going to spread the rumors, he was going to get the guys riled up. That's what I believed and that's what I relayed to DSAIC Connolly.''    This is simply unacceptable. Based on the IG report, the watch commander should have done more that night, not less. And it is appalling that senior Secret Service officials would discourage junior officers from doing the right thing. The agents and the officers of the Secret Service will never have the full trust of their colleagues while the fear of retaliation continues.    Finally, let me conclude by thanking Director Clancy for his cooperation and quick action. As the inspector general report concludes, ``Director Clancy acted appropriately upon receiving information about potential misconduct.'' The inspector general also informed our committee that he received, ``outstanding.'' cooperation from Director Clancy and the Secret Service during the entire investigation.    Although we had hoped that Director Clancy would be available today, this is Police Week, and he's attending several events to honor officers for acts of valor and the families of those who have fallen in the line of duty. And he called personally the chairman and yours truly to express his concern and his regrets that he could not be with us at this hearing. And I know that the chairman understood that, I understood it, and I want to thank him for all he's done. He has offered to reschedule for another date, and I look forward to hearing from him, Mr. Chairman.    And with that, I yield back.</t>
   </si>
   <si>
@@ -76,633 +70,606 @@
     <t xml:space="preserve">    Chairman Chaffetz. But we'll now recognize the witness who's here today, who represents a large, big group of people who have spent a lot of good time in innovative investigative work to come to this meeting today. So it's with pleasure that we welcome Inspector General John Roth. Mr. Roth assumed the post of inspector general of the Department of Homeland Security on March 10, 2014, after previously serving as the Director of the Office of Criminal Investigations at the FDA, the Food and Drug Administration. Before that, he had had a long and distinguished career with the Department of Justice.    Welcome.    Pursuant to committee rules, all witnesses are to be sworn before they testify. So if you will please rise and raise your right hand.    Do you solemnly swear or affirm that the testimony you're about to give will be the truth, the whole truth, and nothing but the truth.    Thank you. Let the record clearly reflect that the witness answered in the affirmative.    Mr. Roth, we will now recognize you. And don't even bother starting the clock. We'll hear your report, and then when you're done, we'll ask questions.    Mr. Roth.</t>
   </si>
   <si>
+    <t>412661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Thank you. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for inviting me here today. As you know, we have made public our report concerning the incident at the White House Complex on the evening of March 4.    Our objective was to conduct a factual inquiry and to assess the reasonableness of the actions of the individuals involved. We conducted this investigation from March 12 until April 30.    This inquiry centered on the activities of two senior Secret Service supervisors. Marc Connolly is the Deputy Special Agent in Charge of the Presidential Protective Division, a position that he has held for the last 2 years. Connolly's duties include all aspects of White House security. George Ogilvie is the Assistant to the Special Agent in Charge at the Washington Field Office and is a supervisor in the protection squad. He has previously worked in the Presidential Protection Division.    The report that we wrote is a summary of the investigation, and it is attached to my written testimony. The materials of our investigation that we produced, our reports of interviews, the physical evidence, and the documents we found, have been turned over to the Secret Service in accordance with our regular procedures.    The Inspector General's Office does not make recommendations as to whether or what personnel actions should be taken, but leaves that to the Secret Service. Our duties in this instance are purely investigative.    The report makes some conclusions based on the evidence that we found. For example, it was more likely than not that Connolly and Ogilvie's judgment was impaired by alcohol. The two agents displayed poor judgment and a lack of situational awareness in driving into the scene.    While during their interviews each denied drinking to excess, we must assess those denials in light of the Uniformed Division officers' observations of the agents' behavior, the fact that they had just spent the 5 previous hours in a restaurant bar, and that two highly experienced supervisors drove into a crime scene inches from what the rest of the Secret Service was treating as a potential explosive device and which, under different circumstances, could have endangered their own lives and those of the Uniformed Division officers who responded.    Moreover, both agents were required to report their conduct up the chain of command, but failed to do so. Each told us that they did not believe that what they had done amounted to a reportable incident. Their failure to report reflects either poor judgment on their part or an affirmative desire to hide their conduct.    With regard to the actions of the Uniformed Division that evening, we found that they reacted to the suspicious package generally in accordance with Secret Service policy and operational procedures. However, the establishment of the perimeter should have been better executed. While there's often confusion inherent in a fast-moving and factually fluid situation, a number of vehicles and pedestrians came within close proximity to the object after the Uniformed Division had established the safety perimeter.    The Uniformed Division officers made reasonable attempts, while they were securing the scene, to canvass the area for the suspect, but an early partial description of the suspect's vehicle foiled the ability to apprehend the suspect during her flight. However, the Secret Service investigative agents reacted quickly to identify the suspect and determine the nature of the threat.    It was the watch commander's sole decision to allow Connolly and Ogilvie to pass without further inquiry as to their sobriety. The watch commander made this decision on his own assessment based on his observations. While it would have been far preferable if he had ordered a field sobriety test or made other inquiries to establish both agents' fitness to drive, the watch commander's actions must be considered in light of the vast disparity in rank between the watch commander and Connolly, who was in the watch commander's chain of command, the vague and insufficient Secret Service policy regarding drinking alcohol and driving government vehicles, and the Secret Service reputation for punishing or ignoring those who would further investigate or report such violations.    The watch commander reported the facts as he understood them to his superior officer. The watch commander and his subordinates should have been able to rely on their superior officers to appropriately report the situation. Both Uniformed Division Deputy Chief Dyson and Uniformed Division Chief Simpson were notified that night that the two agents had driven into an evacuated area and that alcohol was involved, and each could have reported the incident, but did not.    I would like to publicly acknowledge the hard work of the agents of the Office of Inspector General who conducted this investigation. They displayed a dedication to the OIG mission and professionalism that does me proud, and I am grateful for their efforts.    Additionally, I would like to express my appreciation for the outstanding cooperation we received from the Secret Service's Office of Professional Responsibility and from Director Clancy himself.    Mr. Chairman, that concludes my testimony. I'm happy to answer any questions you may have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Thank you. I now recognize myself for 5 minutes.    Mr. Roth, there was an email about the incident forwarded up the chain of command on March 4. Can you tell me a little bit more about that email, what you found?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Certainly. What we had found was that--and let me get to the page in the report that has that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. The version I have is page 15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Thank you, sir.    Correct. There was an email that was sent really up the chain of command all the way to the SAIC of the Presidential Protection Division that described in sort of very vague terms what had occurred at the entrance of E Street.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. And why do you think the email was forwarded by Deputy Chief Dyson to Mr. Connolly himself?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think it was to let Mr. Connolly know that, in fact, word was getting out of the incident and that he had the necessity to self-report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. And how did Mr. Connolly respond to that email?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. During that night when Mr. Connolly was driving home, he called Deputy Chief Dyson and expressed his concerns with regard to the fact that this was getting out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. So if Deputy Chief Dyson denied that he was aware that the email was about the vehicle containing Mr. Connolly, would you find that denial credible?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Not knowing any other facts, it certainly would raise some additional questions I'd have to ask Deputy Chief Dyson. The evidence that we have derived indicates that Mr. Connolly and Deputy Chief Dyson had a conversation as Connolly was driving home expressing concerns about that email itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. So for him to suggest that he had no idea that Connolly was in the car, that couldn't possibly be true, could it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Our interview of Deputy Chief Dyson, I believe he indicated that it sounded like Connolly was in the car as they were having that discussion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Did your investigators ask any questions about the video cameras being directed away from the area where Braun was questioning Connolly and Ogilvie? That was something that our whistleblowers, and there are concerns that the video cameras were actually moved away so that they could not see that interaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I was not aware of any of that. What we did find with regard to the video preservation was, as you know, there's only a 72-hour preservation of the video unless it is somehow burned to removable media.    What we found in the course of our investigation was the actual, what I would call the barrel incident, Ogilvie driving and striking the barrel and moving the barrel out of the way, was, in fact, burned onto removable media at the request of the Uniformed Division folks who were on the scene and who wanted to figure out exactly how it was that that barrel was moved. We, of course, had no other video, so there was nothing else to review other than that snippet that had gotten burned that night.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. And that's one of our deep concerns long term, is just that, A, why the policy, when you require an airport to retain video for 30 days and yet they only retain this for hours? There were a couple different potential crimes going on. You did have two people that were trying to detain this woman from driving away. They claimed to be injured and assaulted. That video is not necessarily all captured from start to finish. The bungling of how we were going to apprehend this person who had left a potential bomb.    Let me ask you, were there any officers in the JOC that night who outranked Braun, do you know?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That outranked Braun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. There was an assistant to the SAIC, I think in the Presidential Protection Division, who was there, so in other words, an investigative agent, I think, in a GS-14 level. I'm assuming that that outranks Braun, but I'm not 100 percent sure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. One of the concerns is about when Director Clancy knew. You know, this thing was evidently spreading like wildfire, there's emails, there's telephone discussions, there are people who are asking to have videotape preserved because they were upset and irate about what was going on. You had former agents, you had retired agents, you had a newspaper reporter, you had members of Congress all heard about this before Director Clancy. Is that possible?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Apparently that's what the facts show.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. So who's responsible? Where did it stop? Where did it not continue up the chain of command so that Director Clancy knew about it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Well, I think there are several points of failure. I mean, certainly one of the points of failure is with Connolly and Ogilvie, who had, according to Secret Service policy, a duty to report their own misconduct up the chain. So the SAIC of the Presidential Protection Division, in fact, should have been informed by Connolly, and the SAIC of the Washington Field Office should have been informed by Ogilvie, but were not. So that's one point of failure.    I think the other point of failure is with the supervisors, the leadership in the Uniformed Division. Both the chief and the deputy chief could have and should have reported it up. Each of them when we interviewed them said: Well, the reason that we didn't do it is because Connolly believe--or Connolly told us that he was going to self-report, so I didn't want to do it, I'd rather have Connolly do it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. But, technically, both should have happened, right? They should have self-reported and they should have reported it. They knew that misconduct had happened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. So why didn't they do it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Well, I think it was a failure on those individuals' parts to do what it is that they were supposed to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Anybody else should have reported?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Those are the four individuals that I believed had primary responsibility. Obviously there were individuals, for example, in the JOC, the Joint Operations Center, who understood what went on, including the 1811, the special agent supervisor who was at the JOC that evening, who could have reported it up, probably should have reported it up. There are the Uniformed Division individuals themselves who could have reported it as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. And my concern is that they did not preserve all the video that was germane to both the leaving of the package, the fleeing of the person, and the incident itself.    With that, I yield back and now recognize the ranking member, Mr. Cummings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. Picking up exactly where the chairman left off, Mr. Roth, I notice that at the beginning of your report you mentioned that you're deferring specific conclusions about potential systemic issues facing the Secret Service until you have completed your investigation into at least five or six other incidents. Is that correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That's correct, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. And what form do you think that's going to take? It seems like we have a culture of secrecy, a culture of complacency, a culture of fear of retaliation. I mean, what do you see, where are you going with that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Sure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. You follow me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Yes, I do. And the way I see our office is where we add value is having that independent fact-finding ability, to be able to go in and gather documents and interview individuals who are, in fact, compelled under DHS rules to talk to us.    So what we intend to do is very similar to what we did with the Bush residence alarm report that was issued a few weeks ago. We are going to find a lot of facts and we are going to see exactly what it is that we find. We are going to use the disinfectant of sunlight. We are going to publish reports. We are going to report them both to the Secretary, to the Director of the Secret Service, and obviously the committees to whom we report.    We think that at the end of those fact-findings, some of the conclusions or some of the sort of themes will become apparent. But, for example, we'll do--or we are in the process of doing an investigation into the 24 incident at the CDC where the President was in close proximity to an armed security guard, unknownst to the Secret Service.    We will write a factual report about exactly what happened, where there were points of failure within that, and publish that, again, to this committee, as well as the other committees of jurisdiction, to the Secretary, and to the Director.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. So it sounds similar to when the DOJ comes into a police department and is looking at patterns of practice. I mean, is that similar, do you think?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think that's a pretty good analogy. The only difference is that we are going to do this serially. In other words, we are not going to wait until the end. We are going to produce these, because we think it's important to get the information out as quickly as we possibly can.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. Now, I want to ask you about the agency's policies regarding alcohol, which your report calls, ``vague and insufficient.''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. First let me quickly walk through some details about the retirement party.    According to your report, the party started at about 5:30 and lasted until 7:30. Your report says there was an open bar. Afterwards, Mr. Connolly and Mr. Ogilvie stayed at the bar with two other colleagues, and, according to your report, Mr. Ogilvie opened a new bar tab at 7:44 p.m. And closed it 3 hours later. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That's correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. As part of your investigation, you obtained the actual bar tab, did you not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We did.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. And I would like to put it up on the screen. Your report says they purchased, ``eight glasses of Scotch, two vodka drinks, one glass of wine, and three glasses of beer.'' They were on a roll.    Looking at this tab, the first three items are beers, then a glass of wine, then eight--eight--Johnny Walker Reds, and then two vodka drinks. So 14 alcoholic drinks in all. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. The agents claimed that they did not have all of these drinks. Mr. Ogilvie told your investigators that five glasses of Scotch, the glass of wine, and the three beers were, ``given away to others.'' but he could not remember to whom. Is that correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. Okay. But at a minimum Mr. Ogilvie admitted to drinking two Scotches and one beer, Mr. Connolly admitted to drinking two beers, and both Mr. Connolly and Mr. Ogilvie also admitted that they drove their government vehicles that same evening on their way home. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. As of March 4, the Secret Service had a policy that prohibited officers from operating government vehicles, ``while under the influence of intoxicants,'' but your report says that this policy applied only to Uniformed Division officers, not to agents like Mr. Connolly or Mr. Ogilvie. This seems a bit ridiculous to me, but do you know why that was the case?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We don't. And what we found with a lot of these policies is they were put in, in sort of a piecemeal and patchwork fashion. But we don't have a good explanation as to why it only applied to the Uniformed Division but not to the special agents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. Now, the Secret Service is also part of the Department of Homeland Security, which has its own policy prohibiting all employees from drinking alcohol within 8 hours of operating a government vehicle. So even if we take the agents at their word in terms of how much they drank that night, it seems they violated existing DHS policy, but your report says that you found, ``no evidence that anyone in the Secret Service was aware of this policy.'' Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. That's a problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. And I don't see how we can have the elite of the elite and they don't even know what their own rules are.    After the incident on March 4, the Secret Service issued a new rule prohibiting all employees from drinking any alcohol within 10 hours of driving a government vehicle. So this new rule is even more strict than the DHS policy. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. Do you know if the Secret Service is taking steps to educate their employees about this new policy and are they conducting training in that regard?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We did not look at that in this investigation, but that is something that we are certainly interested in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Cummings. Well, I'm sure that's something that this committee will take up.    My last thing just, Mr. Roth, there are clearly significant problems relating to alcohol at the agency. We've seen that in the past incidents as well. But it also appears that the agency's vague policies just made worse the problem. So I hope today's hearing is part of a broader effort to reform the agency's policies, to make absolutely clear to employees what is expected of them, and to revitalize the agency so it can perform its critical mission and once again become the elite of the elite.    With that, I yield back.</t>
+  </si>
+  <si>
+    <t>412272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Connolly. Mr. Chairman, just as a matter of personal privilege.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Connolly. Mr. Connolly is not related to me, nor do I like Scotch. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Duly noted.    We'll now recognize the gentleman from Florida, Mr. DeSantis, for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Mr. Roth, in your report you said that the incident should be considered in light of the Secret Service's reputation for punishing or ignoring those who would further investigate or report such violation. And that interests me, because before your tenure the DHS Office of Inspector General released a 2013 report which did not find evidence in the Secret Service that misconduct or inappropriate behavior is widespread or that leadership has fostered an environment that tolerates inappropriate conduct.    So given your tenure, given this report, what are your thoughts about the 2013 DHS report? Is that an accurate reflection of what's going on in the culture of the Secret Service right now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Certainly not right now, it is not, I mean. But one of the things about the report that you reference, the 2013 report, is that there are fascinating findings within it. For example, they did a survey, an electronic survey in which 138 electronic survey respondents personally observed excessive alcohol consumption and 86 percent of them indicated that they did not report such behavior. The report also indicated that of the 2,500-and-some electronic survey respondents, 44 percent of them felt that they could not report misconduct without fear of retaliation if they, in fact, reported that.    So within that report itself there are some very, very disturbing trends. And I think, given the nature of what it is that we've seen since then, I believe that there is a serious problem within the Secret Service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. And that report also found that 36 percent of the respondents did not believe that senior managers are held accountable within the agency. Do you think that that is still the case today?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We haven't done any work on that, but it would not surprise me if it is still that case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. Is there any indication that the process for discipline within the Secret Service has improved since the 2013 report?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Well, it certainly has improved since Cartagena. The Secret Service has taken steps to--they have an Office of Integrity now, for example. That is the one that imposes discipline. As a result of our 2013 inspection, we made a number of different recommendations, including the table of penalties, which they now have adopted. So I think the Secret Service is moving in the right direction in this area after Cartagena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. It's safe to say, though, that the conclusions reached in the 2013 report, that there's a conflict between the conclusions you reached in your report.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I would agree with that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. So the question is then, how to correct what has led to the cultural problems that your report identifies. And then I agree with you that, I think, underlying the 2013 report you saw evidence of that from the people who responded to the survey. So as people who are doing oversight, I mean, what do we need to be doing or what does the agency need to be doing, in your judgment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Well, candidly, I think Director Clancy is moving in the right direction. As I said, they've indicated they've put together a table of penalties, they have an Office of Integrity. I think they're doing increasing training on this. I think they've treated violations of this very seriously. For example, the auto accident in Florida involving some of the Uniformed Division that was alcohol related, I think the discipline that was imposed there was appropriate.    So I won't expect that a problem that took years to create will be fixed overnight, but I do think they are moving in the right direction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. Amongst your experience with the other components of DHS, do they all have similar issues with alcohol or is the Secret Service unique in that regard?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We haven't taken a specific look at other law enforcement agencies to the degree that we have with the Secret Service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. But you have not had a lot of alcohol-related incidences brought to your attention that you've had to investigate? Is that fair?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That's fair.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. Do any of the other DHS components have a similar reputation where somebody who is trying to do the right thing could end up getting punished or marginalized?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Again, we haven't looked at that, so it's very difficult for me to opine on that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. But you can say that that is not a problem that's been presented to you in the other components during your tenure, correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That's correct, it hasn't been brought to my attention that that's the case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. DeSantis. Great.    Well, let me thank you for the report. I thought it was done timely and I think it had a lot of good information in it. So thanks for doing that. And obviously we want to see with some of the other incidents, we are looking forward to those results as well. So thank you.    And I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Thank you.    I now recognize Ms. Norton from the District of Columbia, 5 minutes.</t>
+  </si>
+  <si>
+    <t>400295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman, and thank you for this hearing. You've been pretty busy, Mr. Chairman, today.    And, Mr. Roth, we appreciate your report. You of course see some congressional impatience. That impatience, I suppose this committee is paid to be impatient, particularly, though, in light of the repetitive incidents.    So I'm trying to be as objective as I can and to put this in perspective. I can do that because I ran an agency that was a whole lot more troubled at the time than the Secret Service, a huge backlog and the rest, and if someone had said to me, you know, within a couple of months get it in order, I would have been in bad shape. It took me a little time to get rid of that backlog. So I'm trying to keep in mind what it is Mr. Clancy found and what he perhaps has done.    Now, I note that I asked staff to find out, you know, when was he appointed exactly. He is actually a long-term employee of the Secret Service. He was acting from October. The March 4 incident occurred in I consider his acting time, but he was official as of February 19.    Now, as of the March 4 incident, Director Clancy apparently had not issued the order that was issued after that incident involving the two agents, required to report through their chain of command any activities, et cetera.    And my concern with that is whether or not this indicates--it seems to me that in light of his efforts, having been with the agency, for example, even during the time when there was no reporting of the bullets that had penetrated the White House, I was concerned that the first thing he did was not to say: Look, let me know before the press knows and before anybody knows. It bothered me that, as short a time as that may seem, that he certainly was aware.    So my question goes to whether or not, in light of this order after the March 4 incident, you believe there is sufficient clarity so that that might seem pretty clear as to what is required. For example, I don't know, and do agents know about drinking off duty? Does there need to be greater clarification beyond reporting now up the chain of command of what is required of an agent on and off duty?    These agents have been under huge duress, according to the special panel. ``For years the Service has taken on additional missions in both protective and investigative roles, but has not matched its request for additional resources of those expended.'' And they reported that they had been on 12-hour days and with fewer and fewer days off.    So, again, if you step back and look at it, they have obviously been subject to the sequester and the rest of it. And the panel said that they needed, at best, 200 officers and 85 agents and that they were down 500.    So essentially you have some overworked, overburdened agents. So you would imagine that if people even that high in the chain of command had been overworked that way, that they might go out and drink too much.    So is there any clarification? If you're an officer of something like the Secret Service and you are off duty, but subject perhaps to being called on duty, but bearing in mind that everybody's entitled to a private life, is there enough clarification about what is required on and off duty so that we can be assured that there will not be another incident like this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think you raise a good point and a good concern, and it's certainly one that we wrestled with, with regard to what does it mean to be on duty, because most of these special agents are subject to recall at any time. Does that mean they can never consume alcohol? It would seem to be an irrational policy if that's the case. But I agree that there probably is room for clarification with regard to that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. Norton. All right, Mr. Chairman. Thank you very much. Mr. Chairman, I would ask that, because I think this is a very murky area, that we ask Director Clancy to bring some clarification. For example, certain number of hours perhaps before being required to report for duty, et cetera, I have no idea, but some clarification might be fair in light of what they should expect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. I wholeheartedly agree, because what you see at Homeland Security issued by Secretary Johnson is different than what the individual agencies within his Department have in front of them. And there should be a uniform standard across the board, and there's not. And I think that is one of the fixes that we need to work with the agency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. Norton. Well, maybe even a higher standard for Secret Service agents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Amen.    All right. Let's now recognize the gentleman from North Carolina, Mr. Walker, for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    Let me just sort of pick up what we were discussing when it comes to off duty/on duty in the aspect of driving government vehicles. So the question I'd like to start with is, did you determine whether any other attendees, Mr. Roth, at the party drove government-owned vehicles after consuming the alcohol?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We did not. We interviewed some of the individuals who were at the sort of farewell party in which alcohol was served. Some of them had alcohol and then, for example, went back to the office to continue to work. But we did not really press it.    And my point with regard to that is that the DHS policy was really unknown to the Secret Service. No one within the Secret Service understood it. We did not see any attempts by the Department itself to promote this policy. The policy was in the manual for essentially maintenance of cars, government cars. It was not a place in which you would naturally look to see a policy like that. So it was difficult for us to blame somebody for violating a policy that, one, they didn't know about, and, two, no one made an effort to tell them about.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. Granted. And I understand being ignorant of certain aspects in ethics and so forth as we continue to learn even as a new Member of Congress.    However, let me ask this. Were any of the party attendees of the Secret Service part of the executive staff? And if so, should not they be held some kind of liable to understand what the rules are?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Yes. I agree with that. Subsequent to this, of course, as has been noted, the Secret Service put a new policy in place, a very bright line policy in place that says you cannot step into or operate a government vehicle if in the last 10 hours you've had any alcohol whatsoever. So certainly the behavior that took place at the party is now prohibited. So there is clarity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. There's no ambiguity. I mean, you've, I guess, proved the fact that they did know of at least that policy part of it. Is that correct? I mean, most Secret Service agents, if you've been drinking, probably not a good idea to get back into your government-owned vehicle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Well, what we found was that there was a lot of uncertainty as to what the policy was. It was to not drive drunk, obviously. But the question of when you're impaired, in other words, is it okay to have a drink and then drive? And I think at a previous hearing Director Clancy, in fact, talked about that. If you're not able to control your actions, it's not a legal limit, but it could be something less. You may not be intoxicated by a legal limit, but some could say that you don't have the proper abilities. So some sort of impairment. But that was such a vague sort of standard that it's functionally unenforceable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. It is, but you did mention, I believe, just a second ago that some Secret Service employees returned to work after consuming the alcoholic beverages. Is that correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. Okay. And what has been done or what has been said, what has been reprimanded? Give me a little bit of background what happened after that was found out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Sure. I mean, our policy is that we find the facts and conduct the investigation, and then we give everything that we have to the Secret Service, because we are not in the discipline business----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. I understand that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. --we are in the fact-finding business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. You're just fact-finding. Are you aware of anything that's been done to those employees who were drinking and then came back to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. No. We have transmitted our information last week. So we haven't heard anything back. I mean, typically we won't, by the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. We talked a little bit about the culture of the Secret Service. And I appreciate some of the words that you've talked about as far as you feel like there's been a little bit of improvement or change or a 30,000-foot expectation of raising the bar a little bit. But this kind of contradicts that mindset that there's still that frat party mentality that what applies to everybody else doesn't apply to us. I don't want to speculate or create some kind of hypothesis here, but is that a fair statement, that there are still things, work needs to be done inside the Secret Service to get the level--the bar raised?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Yes. I share your concern with exactly that. We don't know the degree of the problem, but it certainly seems like there are some issues here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. I will tell you this on a personal note, Mr. Roth. I've seen you here, as well as my other committee on Homeland Security. You always do exemplary work. And I appreciate and I think the Americans appreciate your thoroughness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Walker. Thank you very much.    With that, I yield back, Mr. Speaker. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Thank you.    I now recognize Mr. Clay of Missouri for 5 minutes.</t>
+  </si>
+  <si>
+    <t>400074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    Mr. Roth, I want to ask about an email exchange that your investigators obtained between the two agents who had been drinking in the bar, Mr. Connolly and Mr. Ogilvie.    First, let me walk through some facts. The incident happened on the night of March 4. Your report found that Mr. Connolly and Mr. Ogilvie should have reported this incident, but neither did so. Is that right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Clay. Based on their failure to report, it seems like they were hoping this whole thing would just blow over.    Two days later, on March 6, Mr. Connolly had his chance to come clean. He had a meeting with his superior, the Special Agent in Charge, Robert Buster, but according to your report, he never mentioned anything involving this incident. Your report says this, and ``Connolly met with his supervisor, SAIC Buster, on March the 6th, and discussed the UD officers' handling of the confrontation with the suspect in the suspicious package incident. Connolly did not mention the incident involving him and Ogilvie.''    So at this meeting on March 6, Mr. Connolly basically decided that he would just keep his mouth shut and not tell his supervisor what happened. Is that correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Clay. And he also would have learned at that meeting that nobody else had reported the incident either.    And so here is what I want to ask you about. The very next day, on March 7, Mr. Ogilvie and Mr. Connolly had an email exchange. I'd like to put it up on the screen.    Okay. This is an email exchange.    Mr. Ogilvie at 8:24 said: ``All good.''    Mr. Connolly at 8:30: ``Muy bueno.''    And then at 8:50: ``You are''--from Mr. Ogilvie--``You are an angel.''    Mr. Roth, I don't know what was in their heads, but certainly one interpretation of this exchange is that Mr. Ogilvie was asking: Hey, are we going to get in trouble for this or are we all good? Then Mr. Connolly, who just met with his boss the day before and determined that nobody else had reported the incident, assured him that everything would be fine.    Mr. Roth, your investigators interviewed Mr. Ogilvie. According to their interview notes, Mr. Ogilvie admitted that the context of this email was to check in with Mr. Connolly about the March 4 incident. Is that correct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Yes, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Clay. In contrast, Mr. Connolly told your investigators that this email had nothing to do with the March 4 incident. He claimed that he had no idea what this email was about, no clue. He told your investigators, ``He did not know what the intent was behind it. It was open-ended. And he did not know if it was in reference to March 4 or the busy day that he was having.''    Mr. Roth, I have one last question for you. Do you buy that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. No, I don't. I believe that this was communication between the two to make sure or see whether or not the word had leaked out with regard to the incident that had happened 2 days prior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Clay. What usually happens when a witness like that is being so dishonest? Are there any followup to a person's dishonesty? I guess this was a deposition or just a questioning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. It was an interview that took place as part of an investigation that we were doing. He has the obligation, obviously, to be--to tell the truth. And I think there are penalties as a result of not telling the truth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Clay. All right. Well, thank you so much for your responses. Mr. Chairman, I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Thank you. Now recognize Mr. Hice from Georgia for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman. You have already stated, Mr. Roth, that it was a failure on the part of Dyson and Simpson not to report the incident. And their excuse was that they thought this would be self-reported. Do you believe that allowing individuals to self-report is acceptable?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. No, I do not. I think, particularly in the supervisory chain, that they had an independent duty to report this, either to me or to the Secret Service Office of Professional Responsibility, or up the chain. I would note that the Uniformed Division chief said he didn't think it was his job to report misconduct that happened by special agents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. So is this a policy problem or a communication problem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think this is a communication problem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. So what does the policy say?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. The policy says that individuals have a responsibility to report suspicions of violation of law or regulation, either to the Inspector General or, for example, here to the Office of Professional Responsibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Does the policy state that individuals must self-report?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. There is a Secret Service policy that requires individuals to self-report, yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Okay. But you don't believe that that is effective?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think it is effective if you have the integrity to do so. Obviously, if----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. But you just said that it's not an acceptable practice, and yet it's policy. So can we expect that policy to change?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think that's a question that you should direct to the Secret Service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Do you believe that Dyson and Simpson should be punished?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. We are not in the business of determining what the appropriate punishment should be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. I am asking do you believe they should be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think their behavior was troubling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Do you believe they should be punished?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think there ought to be consequences for these kinds of actions, yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. All right. Do you believe that any personnel, be it with DHS or Secret Service or whatever, should be able to retire in order to avoid punishment for misconduct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Again, that gets into areas of personnel law that I am simply----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. But I am asking your opinion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Personally, I have been in the government for 29 years. I have a pension. It's vested. That is my property. I would like to think I could rely on that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. But in order to avoid punishment for misconduct--we are seeing an awful lot of this these days, and it's quite disgusting to me personally and to a lot of people that I talk to. It's a way of dodging consequences for personal behavior. It enables people to behave any way they want to, and when they get caught with their hand in the cookie jar, they just retire with no consequences. And you believe that's okay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I certainly understand the frustration with this. I mean the maximum consequence that could be faced here would be termination from the service, leaving the service, which is functionally what retirement will do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Without punishment, though, for misconduct. Somewhere along the way we have got to deal with the problem of misconduct. And at this point, there seems to be nothing. And if anyone's caught, they just retire and there is no consequences. And that's an entirely unacceptable policy when all is said and done. At some point, misconduct has to be dealt with, because we are seeing, it seems like on a regular basis, Secret Service high profile cases of misconduct. And there is a root cause somewhere for this culture that allows for misconduct. What do you believe the root cause is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think it is a lack of accountability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Okay. So how do we correct it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Well, again, I think what the Secret Service has done--and again, this is probably better addressed to the Secret Service--is institute a series of reforms, for example a table of penalties, a more uniform way of administering discipline, better communication, those kinds of things.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. There is actually a reputation, and I know you know this, from the report that there is punishment for those who report----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. -- misconduct. Have you ever considered rewarding people for reporting misconduct?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Financially?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. In any way. I mean would that help bring accountability?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I think that's something that's worthy of some discussion. Certainly one of the things that we tried to do, for example, what I did when I came onboard is I sent an email to all 7,000 email addresses in the Secret Service indicating that we were interested in finding sort of misconduct, waste, fraud within the Secret Service, reminding them of protections they have within sort of the Whistleblower Protection Act as well as the Inspector Generals Act. You know, as a result of that, we have gotten some work, some reports. The report on the Bush residence that had an alarm that had been out for 13 months was as a result of a whistleblower. Somebody came forward and said, look, this is an unacceptable thing. You should see what's happened here. And we were able to investigate it, we were able to write a report, we brought it to light, and we fixed the problem. So what I am hopeful of is that as we move down the road, people will understand that, in fact, they do have some redress, that, you know, reporting something up the chain won't simply be ignored, but they will actually fix the problem. But it is going to take some time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Hice. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Thank you. I now recognize the gentleman from Massachusetts, Mr. Lynch, for 5 minutes.</t>
+  </si>
+  <si>
+    <t>400249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. Thank you, Mr. Roth, for your good work here. You did a bang up job on this investigation. You got to the bottom of it. And we appreciate it. I want to talk to you a bit about the videotape procedure there at the White House. Now, we had a chance, a bunch of the members, Chairman Chaffetz and I and the ranking member, Mr. Cummings, went over to the command post for the Secret Service. And they had a full spectrum situation there where they have maybe a dozen different cameras and different angles, and they have got a pretty good view of the White House.    The problem is that in this case, let's just take this case with, you know, the most recent incident where the woman got out of the car and left the bomb in the driveway, that tape was only retained I think for 72 hours. And they did not--they did not tell Director Clancy for 5 days. So by the time they told him about what had happened, most of the tapes had already been destroyed--well, they hadn't been destroyed, they had been taped over. They retape over. That's every 72 hours.    We also had an incident back in November of 2011 where you had an individual, I believe his name was Ortega, Oscar Ortega Hernandez, who took a semi-automatic rifle and shot up the White House, and yet the Secret Service completely missed it, Capitol Police missed it. A housekeeper happened to find some shell fragments and then reported it and then the FBI did an investigation.    But meanwhile, those tapes were destroyed. Those tapes were destroyed. And--but for the fact that this fellow, after he left had a car accident down by the 14th Street Bridge, we would not have known about that. We would not have been able to connect that incident to the shots fired at the White House.    So, what I am getting at is the airports, everybody uses a 30-day cycle on these tapes. The technology today allows us to do that. And I know you had some inquiry into the reasons why they collapsed that time. Why would the Secret Service want to tape over the tapes when we have had these repeated incidents where a longer preservation of those tapes, say for 30 days, would help us to make the White House more secure?    The second example I gave, the President's mother-in-law and his two daughters were in Washington at the time. One of the daughters was home. You know, we are talking about pretty severe consequences here, and we are sort of whistling through the graveyard here in allowing this practice to go on. So what I would like to try to do is to change the protocol, the security protocol at the White House to start doing things in a way that makes the President and his family safer. Because obviously you have got people jumping over the fence, running through the White House, you have got helicopters landing, and drones, you got people shooting up the White House. I am starting to lose faith. I am starting to lose faith in the Secret Service. I really am. And the level of seriousness that we have in protecting our President and his family. This is pretty basic stuff. So after having inquired about the taping practices at the White House, can you tell me if you have any recommendations that they might adopt to accomplish our goal here of protecting the President?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. What we found was actually even worse than what you described because for the longest time it was only a 24-hour retention policy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Lynch. Correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. And they only changed that after the incident in which there were these functionally gate crashers at the State dinner in 2011. Then they moved it to 72 hours. The system, as I am sure you know, is a combination of digital and analog. It was stood up in 2007. And really, you know, in some ways this is very similar to what we saw in the Bush residence, where they had installed an alarm system after--this was the senior Bush--left office, and they never replaced it. So it was a 20-year-old alarm system that was protecting, you know, a former President. They didn't have a system in place to be able to update these kinds of things. There was not, you know, for example even like a ticket system where if you needed something repaired there would be a record that, in fact, you requested these kinds of repairs.    So a lot of their fundamental business practices simply have not kept up with the 21st century. I think the good news is that with regard to the White House video system, there are updates that are going to occur in the near future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Lynch. Okay. Any timeline on that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I do. I am not sure that's public information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Lynch. Okay. Okay. Fair enough. I will yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. I thank the gentleman. We are getting close to a vote series, so we want to keep hustling here. We are going to recognize Mr. Hice from Georgia for 5 minutes. Mr. Carter. I am sorry, my bad. Mr. Carter for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Mr. Roth, thank you for being here. I want to get at something that is bothering me throughout these series of hearings that we have had on this. And it seems to be the culture, if you will, of the Secret Service about reporting. We have been told, and it has been alleged, that the watch commander actually said that he did not want to report this, he didn't want to ask for a field sobriety test because it would have been a career killer. Is that true?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That is what one of the Uniformed Division officers told us, yes, that the watch commander said. The watch commander subsequently denied that, for what it's worth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. When he says a career killer, is he referring to his career for reporting it or is he referring to their career if they had been found guilty? I am not sure----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. The sense we got was that was one of the motivations for the watch commander not to do any further inquiries, because he thought there may be retaliation against him. In other words, it would be a career killer for him. Certainly consistent with some of the things that we found in the 2013 report with regard to a high percentage of people failing to report misconduct, believing that either nobody would listen, or you would, in fact, be affirmatively retaliated against.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Tell me what the policy is. What is the policy at the Secret Service when someone does--recognizes or when someone is faced with this situation. Are they, you are required to report, or is it you better just keep it quiet?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. It is certainly not the latter. And in fact, it is the DHS policy, it is DHS-wide, that they are required to report it to either the Secret Service Office of Professional Responsibility or to the Inspector General.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. And if you don't report it, what is the punishment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I am not aware at this point what that is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. It would appear to me that that's an important component.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Correct. Correct. As I said, the Inspector General's office isn't involved in specific discipline cases. That's the Secret Service's responsibility. So what we do is we engage in this fact-finding and then hand it over to the Secret Service to do exactly what you suggest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Okay. I am still a little disappointed, not in you, but just in that--it would appear to me that that would be cut and dry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Let me ask you about the two agents who were involved. When they arrived at that White House complex, the officers that stopped them asked them where are you coming from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. And their answer was?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Secret Service headquarters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. And that turns out to be a blatant lie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. That is not, in fact, true, correct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Okay. Then what is the consequences of that? Look, we teach our children there are consequences to actions. This was an action. What is the consequence?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Sure. There is a Secret Service table of penalties that talks about the range of consequences for specific things. And I can go through the specific ones with regard to give you an example.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. I appreciate that, and I understand what you are trying to do. But let me ask you this: What is going to happen to them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. There is a process that's in place that the Office of Integrity for the Secret Service runs, which is the deputy of the Office of Integrity will write up, I assume take a look at our report and supporting materials that we have produced, and determine whether or not discipline is warranted. If he does, he will write up what is functionally a charging letter and give that to the individuals who are involved here, Connolly and Ogilvie.    They have due process rights under the law. They have the ability to appeal it to the Integrity officer, as well as, if the consequences are severe enough, to the Merit Systems Protection Board.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Within those written laws, is one of the options to go ahead and retire?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I am not sure. I mean, certainly, you can only discipline people who are Federal employees. If somebody leaves the Federal service, then there is no discipline to impose because the most discipline you can impose is to throw them out of the Federal service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Does it go on their permanent record?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Yes, it would.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Is that shared with a prospective employer in the future? If one of them goes to get--you know, in the private sector, do you tell them, okay, this is what happened? Or do you just tell them, no, they were employed here from this day to this day?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I am not 100 percent sure. I think in the instance of these two individuals, I think a Google search is going to take care of that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Obviously in this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. Right. But I am not sure. That's an area of employment that I that I just don't have.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. I understand. But my point is, the concern that I have is just with the general culture that exists in the Secret Service at this time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Roth. I certainly share that concern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. Carter. Absolutely. Thank you, Mr. Chairman. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman Chaffetz. Glad to see Mr. Carter coming in under time. I appreciate it. I will now recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Thank you. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for inviting me here today. As you know, we have made public our report concerning the incident at the White House Complex on the evening of March 4.    Our objective was to conduct a factual inquiry and to assess the reasonableness of the actions of the individuals involved. We conducted this investigation from March 12 until April 30.    This inquiry centered on the activities of two senior Secret Service supervisors. Marc Connolly is the Deputy Special Agent in Charge of the Presidential Protective Division, a position that he has held for the last 2 years. Connolly's duties include all aspects of White House security. George Ogilvie is the Assistant to the Special Agent in Charge at the Washington Field Office and is a supervisor in the protection squad. He has previously worked in the Presidential Protection Division.    The report that we wrote is a summary of the investigation, and it is attached to my written testimony. The materials of our investigation that we produced, our reports of interviews, the physical evidence, and the documents we found, have been turned over to the Secret Service in accordance with our regular procedures.    The Inspector General's Office does not make recommendations as to whether or what personnel actions should be taken, but leaves that to the Secret Service. Our duties in this instance are purely investigative.    The report makes some conclusions based on the evidence that we found. For example, it was more likely than not that Connolly and Ogilvie's judgment was impaired by alcohol. The two agents displayed poor judgment and a lack of situational awareness in driving into the scene.    While during their interviews each denied drinking to excess, we must assess those denials in light of the Uniformed Division officers' observations of the agents' behavior, the fact that they had just spent the 5 previous hours in a restaurant bar, and that two highly experienced supervisors drove into a crime scene inches from what the rest of the Secret Service was treating as a potential explosive device and which, under different circumstances, could have endangered their own lives and those of the Uniformed Division officers who responded.    Moreover, both agents were required to report their conduct up the chain of command, but failed to do so. Each told us that they did not believe that what they had done amounted to a reportable incident. Their failure to report reflects either poor judgment on their part or an affirmative desire to hide their conduct.    With regard to the actions of the Uniformed Division that evening, we found that they reacted to the suspicious package generally in accordance with Secret Service policy and operational procedures. However, the establishment of the perimeter should have been better executed. While there's often confusion inherent in a fast-moving and factually fluid situation, a number of vehicles and pedestrians came within close proximity to the object after the Uniformed Division had established the safety perimeter.    The Uniformed Division officers made reasonable attempts, while they were securing the scene, to canvass the area for the suspect, but an early partial description of the suspect's vehicle foiled the ability to apprehend the suspect during her flight. However, the Secret Service investigative agents reacted quickly to identify the suspect and determine the nature of the threat.    It was the watch commander's sole decision to allow Connolly and Ogilvie to pass without further inquiry as to their sobriety. The watch commander made this decision on his own assessment based on his observations. While it would have been far preferable if he had ordered a field sobriety test or made other inquiries to establish both agents' fitness to drive, the watch commander's actions must be considered in light of the vast disparity in rank between the watch commander and Connolly, who was in the watch commander's chain of command, the vague and insufficient Secret Service policy regarding drinking alcohol and driving government vehicles, and the Secret Service reputation for punishing or ignoring those who would further investigate or report such violations.    The watch commander reported the facts as he understood them to his superior officer. The watch commander and his subordinates should have been able to rely on their superior officers to appropriately report the situation. Both Uniformed Division Deputy Chief Dyson and Uniformed Division Chief Simpson were notified that night that the two agents had driven into an evacuated area and that alcohol was involved, and each could have reported the incident, but did not.    I would like to publicly acknowledge the hard work of the agents of the Office of Inspector General who conducted this investigation. They displayed a dedication to the OIG mission and professionalism that does me proud, and I am grateful for their efforts.    Additionally, I would like to express my appreciation for the outstanding cooperation we received from the Secret Service's Office of Professional Responsibility and from Director Clancy himself.    Mr. Chairman, that concludes my testimony. I'm happy to answer any questions you may have.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Thank you. I now recognize myself for 5 minutes.    Mr. Roth, there was an email about the incident forwarded up the chain of command on March 4. Can you tell me a little bit more about that email, what you found?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Certainly. What we had found was that--and let me get to the page in the report that has that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. The version I have is page 15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Thank you, sir.    Correct. There was an email that was sent really up the chain of command all the way to the SAIC of the Presidential Protection Division that described in sort of very vague terms what had occurred at the entrance of E Street.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. And why do you think the email was forwarded by Deputy Chief Dyson to Mr. Connolly himself?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think it was to let Mr. Connolly know that, in fact, word was getting out of the incident and that he had the necessity to self-report.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. And how did Mr. Connolly respond to that email?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. During that night when Mr. Connolly was driving home, he called Deputy Chief Dyson and expressed his concerns with regard to the fact that this was getting out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. So if Deputy Chief Dyson denied that he was aware that the email was about the vehicle containing Mr. Connolly, would you find that denial credible?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Not knowing any other facts, it certainly would raise some additional questions I'd have to ask Deputy Chief Dyson. The evidence that we have derived indicates that Mr. Connolly and Deputy Chief Dyson had a conversation as Connolly was driving home expressing concerns about that email itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. So for him to suggest that he had no idea that Connolly was in the car, that couldn't possibly be true, could it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Our interview of Deputy Chief Dyson, I believe he indicated that it sounded like Connolly was in the car as they were having that discussion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Did your investigators ask any questions about the video cameras being directed away from the area where Braun was questioning Connolly and Ogilvie? That was something that our whistleblowers, and there are concerns that the video cameras were actually moved away so that they could not see that interaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I was not aware of any of that. What we did find with regard to the video preservation was, as you know, there's only a 72-hour preservation of the video unless it is somehow burned to removable media.    What we found in the course of our investigation was the actual, what I would call the barrel incident, Ogilvie driving and striking the barrel and moving the barrel out of the way, was, in fact, burned onto removable media at the request of the Uniformed Division folks who were on the scene and who wanted to figure out exactly how it was that that barrel was moved. We, of course, had no other video, so there was nothing else to review other than that snippet that had gotten burned that night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. And that's one of our deep concerns long term, is just that, A, why the policy, when you require an airport to retain video for 30 days and yet they only retain this for hours? There were a couple different potential crimes going on. You did have two people that were trying to detain this woman from driving away. They claimed to be injured and assaulted. That video is not necessarily all captured from start to finish. The bungling of how we were going to apprehend this person who had left a potential bomb.    Let me ask you, were there any officers in the JOC that night who outranked Braun, do you know?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That outranked Braun?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Yeah.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. There was an assistant to the SAIC, I think in the Presidential Protection Division, who was there, so in other words, an investigative agent, I think, in a GS-14 level. I'm assuming that that outranks Braun, but I'm not 100 percent sure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. One of the concerns is about when Director Clancy knew. You know, this thing was evidently spreading like wildfire, there's emails, there's telephone discussions, there are people who are asking to have videotape preserved because they were upset and irate about what was going on. You had former agents, you had retired agents, you had a newspaper reporter, you had members of Congress all heard about this before Director Clancy. Is that possible?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Apparently that's what the facts show.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. So who's responsible? Where did it stop? Where did it not continue up the chain of command so that Director Clancy knew about it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Well, I think there are several points of failure. I mean, certainly one of the points of failure is with Connolly and Ogilvie, who had, according to Secret Service policy, a duty to report their own misconduct up the chain. So the SAIC of the Presidential Protection Division, in fact, should have been informed by Connolly, and the SAIC of the Washington Field Office should have been informed by Ogilvie, but were not. So that's one point of failure.    I think the other point of failure is with the supervisors, the leadership in the Uniformed Division. Both the chief and the deputy chief could have and should have reported it up. Each of them when we interviewed them said: Well, the reason that we didn't do it is because Connolly believe--or Connolly told us that he was going to self-report, so I didn't want to do it, I'd rather have Connolly do it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. But, technically, both should have happened, right? They should have self-reported and they should have reported it. They knew that misconduct had happened.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Correct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. So why didn't they do it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Well, I think it was a failure on those individuals' parts to do what it is that they were supposed to do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Anybody else should have reported?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Those are the four individuals that I believed had primary responsibility. Obviously there were individuals, for example, in the JOC, the Joint Operations Center, who understood what went on, including the 1811, the special agent supervisor who was at the JOC that evening, who could have reported it up, probably should have reported it up. There are the Uniformed Division individuals themselves who could have reported it as well.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. And my concern is that they did not preserve all the video that was germane to both the leaving of the package, the fleeing of the person, and the incident itself.    With that, I yield back and now recognize the ranking member, Mr. Cummings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. Picking up exactly where the chairman left off, Mr. Roth, I notice that at the beginning of your report you mentioned that you're deferring specific conclusions about potential systemic issues facing the Secret Service until you have completed your investigation into at least five or six other incidents. Is that correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That's correct, sir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. And what form do you think that's going to take? It seems like we have a culture of secrecy, a culture of complacency, a culture of fear of retaliation. I mean, what do you see, where are you going with that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Sure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. You follow me?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Yes, I do. And the way I see our office is where we add value is having that independent fact-finding ability, to be able to go in and gather documents and interview individuals who are, in fact, compelled under DHS rules to talk to us.    So what we intend to do is very similar to what we did with the Bush residence alarm report that was issued a few weeks ago. We are going to find a lot of facts and we are going to see exactly what it is that we find. We are going to use the disinfectant of sunlight. We are going to publish reports. We are going to report them both to the Secretary, to the Director of the Secret Service, and obviously the committees to whom we report.    We think that at the end of those fact-findings, some of the conclusions or some of the sort of themes will become apparent. But, for example, we'll do--or we are in the process of doing an investigation into the 24 incident at the CDC where the President was in close proximity to an armed security guard, unknownst to the Secret Service.    We will write a factual report about exactly what happened, where there were points of failure within that, and publish that, again, to this committee, as well as the other committees of jurisdiction, to the Secretary, and to the Director.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. So it sounds similar to when the DOJ comes into a police department and is looking at patterns of practice. I mean, is that similar, do you think?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think that's a pretty good analogy. The only difference is that we are going to do this serially. In other words, we are not going to wait until the end. We are going to produce these, because we think it's important to get the information out as quickly as we possibly can.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. Now, I want to ask you about the agency's policies regarding alcohol, which your report calls, ``vague and insufficient.''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. First let me quickly walk through some details about the retirement party.    According to your report, the party started at about 5:30 and lasted until 7:30. Your report says there was an open bar. Afterwards, Mr. Connolly and Mr. Ogilvie stayed at the bar with two other colleagues, and, according to your report, Mr. Ogilvie opened a new bar tab at 7:44 p.m. And closed it 3 hours later. Is that right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That's correct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. As part of your investigation, you obtained the actual bar tab, did you not?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We did.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. And I would like to put it up on the screen. Your report says they purchased, ``eight glasses of Scotch, two vodka drinks, one glass of wine, and three glasses of beer.'' They were on a roll.    Looking at this tab, the first three items are beers, then a glass of wine, then eight--eight--Johnny Walker Reds, and then two vodka drinks. So 14 alcoholic drinks in all. Is that right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. The agents claimed that they did not have all of these drinks. Mr. Ogilvie told your investigators that five glasses of Scotch, the glass of wine, and the three beers were, ``given away to others.'' but he could not remember to whom. Is that correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. Okay. But at a minimum Mr. Ogilvie admitted to drinking two Scotches and one beer, Mr. Connolly admitted to drinking two beers, and both Mr. Connolly and Mr. Ogilvie also admitted that they drove their government vehicles that same evening on their way home. Is that right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. As of March 4, the Secret Service had a policy that prohibited officers from operating government vehicles, ``while under the influence of intoxicants,'' but your report says that this policy applied only to Uniformed Division officers, not to agents like Mr. Connolly or Mr. Ogilvie. This seems a bit ridiculous to me, but do you know why that was the case?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We don't. And what we found with a lot of these policies is they were put in, in sort of a piecemeal and patchwork fashion. But we don't have a good explanation as to why it only applied to the Uniformed Division but not to the special agents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. Now, the Secret Service is also part of the Department of Homeland Security, which has its own policy prohibiting all employees from drinking alcohol within 8 hours of operating a government vehicle. So even if we take the agents at their word in terms of how much they drank that night, it seems they violated existing DHS policy, but your report says that you found, ``no evidence that anyone in the Secret Service was aware of this policy.'' Is that right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. That's a problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. And I don't see how we can have the elite of the elite and they don't even know what their own rules are.    After the incident on March 4, the Secret Service issued a new rule prohibiting all employees from drinking any alcohol within 10 hours of driving a government vehicle. So this new rule is even more strict than the DHS policy. Is that right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. Do you know if the Secret Service is taking steps to educate their employees about this new policy and are they conducting training in that regard?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We did not look at that in this investigation, but that is something that we are certainly interested in.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Cummings. Well, I'm sure that's something that this committee will take up.    My last thing just, Mr. Roth, there are clearly significant problems relating to alcohol at the agency. We've seen that in the past incidents as well. But it also appears that the agency's vague policies just made worse the problem. So I hope today's hearing is part of a broader effort to reform the agency's policies, to make absolutely clear to employees what is expected of them, and to revitalize the agency so it can perform its critical mission and once again become the elite of the elite.    With that, I yield back.</t>
-  </si>
-  <si>
-    <t>412272</t>
-  </si>
-  <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Connolly. Mr. Chairman, just as a matter of personal privilege.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Connolly. Mr. Connolly is not related to me, nor do I like Scotch. Thank you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Duly noted.    We'll now recognize the gentleman from Florida, Mr. DeSantis, for 5 minutes.</t>
-  </si>
-  <si>
-    <t>412526</t>
-  </si>
-  <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Mr. Roth, in your report you said that the incident should be considered in light of the Secret Service's reputation for punishing or ignoring those who would further investigate or report such violation. And that interests me, because before your tenure the DHS Office of Inspector General released a 2013 report which did not find evidence in the Secret Service that misconduct or inappropriate behavior is widespread or that leadership has fostered an environment that tolerates inappropriate conduct.    So given your tenure, given this report, what are your thoughts about the 2013 DHS report? Is that an accurate reflection of what's going on in the culture of the Secret Service right now?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Certainly not right now, it is not, I mean. But one of the things about the report that you reference, the 2013 report, is that there are fascinating findings within it. For example, they did a survey, an electronic survey in which 138 electronic survey respondents personally observed excessive alcohol consumption and 86 percent of them indicated that they did not report such behavior. The report also indicated that of the 2,500-and-some electronic survey respondents, 44 percent of them felt that they could not report misconduct without fear of retaliation if they, in fact, reported that.    So within that report itself there are some very, very disturbing trends. And I think, given the nature of what it is that we've seen since then, I believe that there is a serious problem within the Secret Service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. And that report also found that 36 percent of the respondents did not believe that senior managers are held accountable within the agency. Do you think that that is still the case today?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We haven't done any work on that, but it would not surprise me if it is still that case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. Is there any indication that the process for discipline within the Secret Service has improved since the 2013 report?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Well, it certainly has improved since Cartagena. The Secret Service has taken steps to--they have an Office of Integrity now, for example. That is the one that imposes discipline. As a result of our 2013 inspection, we made a number of different recommendations, including the table of penalties, which they now have adopted. So I think the Secret Service is moving in the right direction in this area after Cartagena.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. It's safe to say, though, that the conclusions reached in the 2013 report, that there's a conflict between the conclusions you reached in your report.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I would agree with that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. So the question is then, how to correct what has led to the cultural problems that your report identifies. And then I agree with you that, I think, underlying the 2013 report you saw evidence of that from the people who responded to the survey. So as people who are doing oversight, I mean, what do we need to be doing or what does the agency need to be doing, in your judgment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Well, candidly, I think Director Clancy is moving in the right direction. As I said, they've indicated they've put together a table of penalties, they have an Office of Integrity. I think they're doing increasing training on this. I think they've treated violations of this very seriously. For example, the auto accident in Florida involving some of the Uniformed Division that was alcohol related, I think the discipline that was imposed there was appropriate.    So I won't expect that a problem that took years to create will be fixed overnight, but I do think they are moving in the right direction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. Amongst your experience with the other components of DHS, do they all have similar issues with alcohol or is the Secret Service unique in that regard?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We haven't taken a specific look at other law enforcement agencies to the degree that we have with the Secret Service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. But you have not had a lot of alcohol-related incidences brought to your attention that you've had to investigate? Is that fair?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That's fair.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. Do any of the other DHS components have a similar reputation where somebody who is trying to do the right thing could end up getting punished or marginalized?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Again, we haven't looked at that, so it's very difficult for me to opine on that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. But you can say that that is not a problem that's been presented to you in the other components during your tenure, correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That's correct, it hasn't been brought to my attention that that's the case.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. DeSantis. Great.    Well, let me thank you for the report. I thought it was done timely and I think it had a lot of good information in it. So thanks for doing that. And obviously we want to see with some of the other incidents, we are looking forward to those results as well. So thank you.    And I yield back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Thank you.    I now recognize Ms. Norton from the District of Columbia, 5 minutes.</t>
-  </si>
-  <si>
-    <t>400295</t>
-  </si>
-  <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ms. Norton. Thank you, Mr. Chairman, and thank you for this hearing. You've been pretty busy, Mr. Chairman, today.    And, Mr. Roth, we appreciate your report. You of course see some congressional impatience. That impatience, I suppose this committee is paid to be impatient, particularly, though, in light of the repetitive incidents.    So I'm trying to be as objective as I can and to put this in perspective. I can do that because I ran an agency that was a whole lot more troubled at the time than the Secret Service, a huge backlog and the rest, and if someone had said to me, you know, within a couple of months get it in order, I would have been in bad shape. It took me a little time to get rid of that backlog. So I'm trying to keep in mind what it is Mr. Clancy found and what he perhaps has done.    Now, I note that I asked staff to find out, you know, when was he appointed exactly. He is actually a long-term employee of the Secret Service. He was acting from October. The March 4 incident occurred in I consider his acting time, but he was official as of February 19.    Now, as of the March 4 incident, Director Clancy apparently had not issued the order that was issued after that incident involving the two agents, required to report through their chain of command any activities, et cetera.    And my concern with that is whether or not this indicates--it seems to me that in light of his efforts, having been with the agency, for example, even during the time when there was no reporting of the bullets that had penetrated the White House, I was concerned that the first thing he did was not to say: Look, let me know before the press knows and before anybody knows. It bothered me that, as short a time as that may seem, that he certainly was aware.    So my question goes to whether or not, in light of this order after the March 4 incident, you believe there is sufficient clarity so that that might seem pretty clear as to what is required. For example, I don't know, and do agents know about drinking off duty? Does there need to be greater clarification beyond reporting now up the chain of command of what is required of an agent on and off duty?    These agents have been under huge duress, according to the special panel. ``For years the Service has taken on additional missions in both protective and investigative roles, but has not matched its request for additional resources of those expended.'' And they reported that they had been on 12-hour days and with fewer and fewer days off.    So, again, if you step back and look at it, they have obviously been subject to the sequester and the rest of it. And the panel said that they needed, at best, 200 officers and 85 agents and that they were down 500.    So essentially you have some overworked, overburdened agents. So you would imagine that if people even that high in the chain of command had been overworked that way, that they might go out and drink too much.    So is there any clarification? If you're an officer of something like the Secret Service and you are off duty, but subject perhaps to being called on duty, but bearing in mind that everybody's entitled to a private life, is there enough clarification about what is required on and off duty so that we can be assured that there will not be another incident like this?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think you raise a good point and a good concern, and it's certainly one that we wrestled with, with regard to what does it mean to be on duty, because most of these special agents are subject to recall at any time. Does that mean they can never consume alcohol? It would seem to be an irrational policy if that's the case. But I agree that there probably is room for clarification with regard to that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ms. Norton. All right, Mr. Chairman. Thank you very much. Mr. Chairman, I would ask that, because I think this is a very murky area, that we ask Director Clancy to bring some clarification. For example, certain number of hours perhaps before being required to report for duty, et cetera, I have no idea, but some clarification might be fair in light of what they should expect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. I wholeheartedly agree, because what you see at Homeland Security issued by Secretary Johnson is different than what the individual agencies within his Department have in front of them. And there should be a uniform standard across the board, and there's not. And I think that is one of the fixes that we need to work with the agency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Ms. Norton. Well, maybe even a higher standard for Secret Service agents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Amen.    All right. Let's now recognize the gentleman from North Carolina, Mr. Walker, for 5 minutes.</t>
-  </si>
-  <si>
-    <t>412670</t>
-  </si>
-  <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    Let me just sort of pick up what we were discussing when it comes to off duty/on duty in the aspect of driving government vehicles. So the question I'd like to start with is, did you determine whether any other attendees, Mr. Roth, at the party drove government-owned vehicles after consuming the alcohol?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We did not. We interviewed some of the individuals who were at the sort of farewell party in which alcohol was served. Some of them had alcohol and then, for example, went back to the office to continue to work. But we did not really press it.    And my point with regard to that is that the DHS policy was really unknown to the Secret Service. No one within the Secret Service understood it. We did not see any attempts by the Department itself to promote this policy. The policy was in the manual for essentially maintenance of cars, government cars. It was not a place in which you would naturally look to see a policy like that. So it was difficult for us to blame somebody for violating a policy that, one, they didn't know about, and, two, no one made an effort to tell them about.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. Granted. And I understand being ignorant of certain aspects in ethics and so forth as we continue to learn even as a new Member of Congress.    However, let me ask this. Were any of the party attendees of the Secret Service part of the executive staff? And if so, should not they be held some kind of liable to understand what the rules are?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Yes. I agree with that. Subsequent to this, of course, as has been noted, the Secret Service put a new policy in place, a very bright line policy in place that says you cannot step into or operate a government vehicle if in the last 10 hours you've had any alcohol whatsoever. So certainly the behavior that took place at the party is now prohibited. So there is clarity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. There's no ambiguity. I mean, you've, I guess, proved the fact that they did know of at least that policy part of it. Is that correct? I mean, most Secret Service agents, if you've been drinking, probably not a good idea to get back into your government-owned vehicle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Well, what we found was that there was a lot of uncertainty as to what the policy was. It was to not drive drunk, obviously. But the question of when you're impaired, in other words, is it okay to have a drink and then drive? And I think at a previous hearing Director Clancy, in fact, talked about that. If you're not able to control your actions, it's not a legal limit, but it could be something less. You may not be intoxicated by a legal limit, but some could say that you don't have the proper abilities. So some sort of impairment. But that was such a vague sort of standard that it's functionally unenforceable.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. It is, but you did mention, I believe, just a second ago that some Secret Service employees returned to work after consuming the alcoholic beverages. Is that correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. Okay. And what has been done or what has been said, what has been reprimanded? Give me a little bit of background what happened after that was found out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Sure. I mean, our policy is that we find the facts and conduct the investigation, and then we give everything that we have to the Secret Service, because we are not in the discipline business----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. I understand that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. --we are in the fact-finding business.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. You're just fact-finding. Are you aware of anything that's been done to those employees who were drinking and then came back to work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. No. We have transmitted our information last week. So we haven't heard anything back. I mean, typically we won't, by the way.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. We talked a little bit about the culture of the Secret Service. And I appreciate some of the words that you've talked about as far as you feel like there's been a little bit of improvement or change or a 30,000-foot expectation of raising the bar a little bit. But this kind of contradicts that mindset that there's still that frat party mentality that what applies to everybody else doesn't apply to us. I don't want to speculate or create some kind of hypothesis here, but is that a fair statement, that there are still things, work needs to be done inside the Secret Service to get the level--the bar raised?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Yes. I share your concern with exactly that. We don't know the degree of the problem, but it certainly seems like there are some issues here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. I will tell you this on a personal note, Mr. Roth. I've seen you here, as well as my other committee on Homeland Security. You always do exemplary work. And I appreciate and I think the Americans appreciate your thoroughness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Thank you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Walker. Thank you very much.    With that, I yield back, Mr. Speaker. Thank you, Mr. Chairman.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Thank you.    I now recognize Mr. Clay of Missouri for 5 minutes.</t>
-  </si>
-  <si>
-    <t>400074</t>
-  </si>
-  <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman.    Mr. Roth, I want to ask about an email exchange that your investigators obtained between the two agents who had been drinking in the bar, Mr. Connolly and Mr. Ogilvie.    First, let me walk through some facts. The incident happened on the night of March 4. Your report found that Mr. Connolly and Mr. Ogilvie should have reported this incident, but neither did so. Is that right?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Clay. Based on their failure to report, it seems like they were hoping this whole thing would just blow over.    Two days later, on March 6, Mr. Connolly had his chance to come clean. He had a meeting with his superior, the Special Agent in Charge, Robert Buster, but according to your report, he never mentioned anything involving this incident. Your report says this, and ``Connolly met with his supervisor, SAIC Buster, on March the 6th, and discussed the UD officers' handling of the confrontation with the suspect in the suspicious package incident. Connolly did not mention the incident involving him and Ogilvie.''    So at this meeting on March 6, Mr. Connolly basically decided that he would just keep his mouth shut and not tell his supervisor what happened. Is that correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Clay. And he also would have learned at that meeting that nobody else had reported the incident either.    And so here is what I want to ask you about. The very next day, on March 7, Mr. Ogilvie and Mr. Connolly had an email exchange. I'd like to put it up on the screen.    Okay. This is an email exchange.    Mr. Ogilvie at 8:24 said: ``All good.''    Mr. Connolly at 8:30: ``Muy bueno.''    And then at 8:50: ``You are''--from Mr. Ogilvie--``You are an angel.''    Mr. Roth, I don't know what was in their heads, but certainly one interpretation of this exchange is that Mr. Ogilvie was asking: Hey, are we going to get in trouble for this or are we all good? Then Mr. Connolly, who just met with his boss the day before and determined that nobody else had reported the incident, assured him that everything would be fine.    Mr. Roth, your investigators interviewed Mr. Ogilvie. According to their interview notes, Mr. Ogilvie admitted that the context of this email was to check in with Mr. Connolly about the March 4 incident. Is that correct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Yes, sir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Clay. In contrast, Mr. Connolly told your investigators that this email had nothing to do with the March 4 incident. He claimed that he had no idea what this email was about, no clue. He told your investigators, ``He did not know what the intent was behind it. It was open-ended. And he did not know if it was in reference to March 4 or the busy day that he was having.''    Mr. Roth, I have one last question for you. Do you buy that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. No, I don't. I believe that this was communication between the two to make sure or see whether or not the word had leaked out with regard to the incident that had happened 2 days prior.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Clay. What usually happens when a witness like that is being so dishonest? Are there any followup to a person's dishonesty? I guess this was a deposition or just a questioning?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. It was an interview that took place as part of an investigation that we were doing. He has the obligation, obviously, to be--to tell the truth. And I think there are penalties as a result of not telling the truth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Clay. All right. Well, thank you so much for your responses. Mr. Chairman, I yield back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Thank you. Now recognize Mr. Hice from Georgia for 5 minutes.</t>
-  </si>
-  <si>
-    <t>412623</t>
-  </si>
-  <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman. You have already stated, Mr. Roth, that it was a failure on the part of Dyson and Simpson not to report the incident. And their excuse was that they thought this would be self-reported. Do you believe that allowing individuals to self-report is acceptable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. No, I do not. I think, particularly in the supervisory chain, that they had an independent duty to report this, either to me or to the Secret Service Office of Professional Responsibility, or up the chain. I would note that the Uniformed Division chief said he didn't think it was his job to report misconduct that happened by special agents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. So is this a policy problem or a communication problem?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think this is a communication problem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. So what does the policy say?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. The policy says that individuals have a responsibility to report suspicions of violation of law or regulation, either to the Inspector General or, for example, here to the Office of Professional Responsibility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Does the policy state that individuals must self-report?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. There is a Secret Service policy that requires individuals to self-report, yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Okay. But you don't believe that that is effective?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think it is effective if you have the integrity to do so. Obviously, if----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. But you just said that it's not an acceptable practice, and yet it's policy. So can we expect that policy to change?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think that's a question that you should direct to the Secret Service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Do you believe that Dyson and Simpson should be punished?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. We are not in the business of determining what the appropriate punishment should be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. I am asking do you believe they should be?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think their behavior was troubling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Do you believe they should be punished?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think there ought to be consequences for these kinds of actions, yes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. All right. Do you believe that any personnel, be it with DHS or Secret Service or whatever, should be able to retire in order to avoid punishment for misconduct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Again, that gets into areas of personnel law that I am simply----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. But I am asking your opinion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Personally, I have been in the government for 29 years. I have a pension. It's vested. That is my property. I would like to think I could rely on that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. But in order to avoid punishment for misconduct--we are seeing an awful lot of this these days, and it's quite disgusting to me personally and to a lot of people that I talk to. It's a way of dodging consequences for personal behavior. It enables people to behave any way they want to, and when they get caught with their hand in the cookie jar, they just retire with no consequences. And you believe that's okay?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I certainly understand the frustration with this. I mean the maximum consequence that could be faced here would be termination from the service, leaving the service, which is functionally what retirement will do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Without punishment, though, for misconduct. Somewhere along the way we have got to deal with the problem of misconduct. And at this point, there seems to be nothing. And if anyone's caught, they just retire and there is no consequences. And that's an entirely unacceptable policy when all is said and done. At some point, misconduct has to be dealt with, because we are seeing, it seems like on a regular basis, Secret Service high profile cases of misconduct. And there is a root cause somewhere for this culture that allows for misconduct. What do you believe the root cause is?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think it is a lack of accountability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Okay. So how do we correct it?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Well, again, I think what the Secret Service has done--and again, this is probably better addressed to the Secret Service--is institute a series of reforms, for example a table of penalties, a more uniform way of administering discipline, better communication, those kinds of things.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. There is actually a reputation, and I know you know this, from the report that there is punishment for those who report----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. -- misconduct. Have you ever considered rewarding people for reporting misconduct?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Financially?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. In any way. I mean would that help bring accountability?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I think that's something that's worthy of some discussion. Certainly one of the things that we tried to do, for example, what I did when I came onboard is I sent an email to all 7,000 email addresses in the Secret Service indicating that we were interested in finding sort of misconduct, waste, fraud within the Secret Service, reminding them of protections they have within sort of the Whistleblower Protection Act as well as the Inspector Generals Act. You know, as a result of that, we have gotten some work, some reports. The report on the Bush residence that had an alarm that had been out for 13 months was as a result of a whistleblower. Somebody came forward and said, look, this is an unacceptable thing. You should see what's happened here. And we were able to investigate it, we were able to write a report, we brought it to light, and we fixed the problem. So what I am hopeful of is that as we move down the road, people will understand that, in fact, they do have some redress, that, you know, reporting something up the chain won't simply be ignored, but they will actually fix the problem. But it is going to take some time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Hice. Thank you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Thank you. I now recognize the gentleman from Massachusetts, Mr. Lynch, for 5 minutes.</t>
-  </si>
-  <si>
-    <t>400249</t>
-  </si>
-  <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. Thank you, Mr. Roth, for your good work here. You did a bang up job on this investigation. You got to the bottom of it. And we appreciate it. I want to talk to you a bit about the videotape procedure there at the White House. Now, we had a chance, a bunch of the members, Chairman Chaffetz and I and the ranking member, Mr. Cummings, went over to the command post for the Secret Service. And they had a full spectrum situation there where they have maybe a dozen different cameras and different angles, and they have got a pretty good view of the White House.    The problem is that in this case, let's just take this case with, you know, the most recent incident where the woman got out of the car and left the bomb in the driveway, that tape was only retained I think for 72 hours. And they did not--they did not tell Director Clancy for 5 days. So by the time they told him about what had happened, most of the tapes had already been destroyed--well, they hadn't been destroyed, they had been taped over. They retape over. That's every 72 hours.    We also had an incident back in November of 2011 where you had an individual, I believe his name was Ortega, Oscar Ortega Hernandez, who took a semi-automatic rifle and shot up the White House, and yet the Secret Service completely missed it, Capitol Police missed it. A housekeeper happened to find some shell fragments and then reported it and then the FBI did an investigation.    But meanwhile, those tapes were destroyed. Those tapes were destroyed. And--but for the fact that this fellow, after he left had a car accident down by the 14th Street Bridge, we would not have known about that. We would not have been able to connect that incident to the shots fired at the White House.    So, what I am getting at is the airports, everybody uses a 30-day cycle on these tapes. The technology today allows us to do that. And I know you had some inquiry into the reasons why they collapsed that time. Why would the Secret Service want to tape over the tapes when we have had these repeated incidents where a longer preservation of those tapes, say for 30 days, would help us to make the White House more secure?    The second example I gave, the President's mother-in-law and his two daughters were in Washington at the time. One of the daughters was home. You know, we are talking about pretty severe consequences here, and we are sort of whistling through the graveyard here in allowing this practice to go on. So what I would like to try to do is to change the protocol, the security protocol at the White House to start doing things in a way that makes the President and his family safer. Because obviously you have got people jumping over the fence, running through the White House, you have got helicopters landing, and drones, you got people shooting up the White House. I am starting to lose faith. I am starting to lose faith in the Secret Service. I really am. And the level of seriousness that we have in protecting our President and his family. This is pretty basic stuff. So after having inquired about the taping practices at the White House, can you tell me if you have any recommendations that they might adopt to accomplish our goal here of protecting the President?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. What we found was actually even worse than what you described because for the longest time it was only a 24-hour retention policy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Lynch. Correct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. And they only changed that after the incident in which there were these functionally gate crashers at the State dinner in 2011. Then they moved it to 72 hours. The system, as I am sure you know, is a combination of digital and analog. It was stood up in 2007. And really, you know, in some ways this is very similar to what we saw in the Bush residence, where they had installed an alarm system after--this was the senior Bush--left office, and they never replaced it. So it was a 20-year-old alarm system that was protecting, you know, a former President. They didn't have a system in place to be able to update these kinds of things. There was not, you know, for example even like a ticket system where if you needed something repaired there would be a record that, in fact, you requested these kinds of repairs.    So a lot of their fundamental business practices simply have not kept up with the 21st century. I think the good news is that with regard to the White House video system, there are updates that are going to occur in the near future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Lynch. Okay. Any timeline on that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I do. I am not sure that's public information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Lynch. Okay. Okay. Fair enough. I will yield back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. I thank the gentleman. We are getting close to a vote series, so we want to keep hustling here. We are going to recognize Mr. Hice from Georgia for 5 minutes. Mr. Carter. I am sorry, my bad. Mr. Carter for 5 minutes.</t>
-  </si>
-  <si>
-    <t>412622</t>
-  </si>
-  <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. Mr. Roth, thank you for being here. I want to get at something that is bothering me throughout these series of hearings that we have had on this. And it seems to be the culture, if you will, of the Secret Service about reporting. We have been told, and it has been alleged, that the watch commander actually said that he did not want to report this, he didn't want to ask for a field sobriety test because it would have been a career killer. Is that true?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That is what one of the Uniformed Division officers told us, yes, that the watch commander said. The watch commander subsequently denied that, for what it's worth.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. When he says a career killer, is he referring to his career for reporting it or is he referring to their career if they had been found guilty? I am not sure----</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. The sense we got was that was one of the motivations for the watch commander not to do any further inquiries, because he thought there may be retaliation against him. In other words, it would be a career killer for him. Certainly consistent with some of the things that we found in the 2013 report with regard to a high percentage of people failing to report misconduct, believing that either nobody would listen, or you would, in fact, be affirmatively retaliated against.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Tell me what the policy is. What is the policy at the Secret Service when someone does--recognizes or when someone is faced with this situation. Are they, you are required to report, or is it you better just keep it quiet?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. It is certainly not the latter. And in fact, it is the DHS policy, it is DHS-wide, that they are required to report it to either the Secret Service Office of Professional Responsibility or to the Inspector General.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. And if you don't report it, what is the punishment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I am not aware at this point what that is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. It would appear to me that that's an important component.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Correct. Correct. As I said, the Inspector General's office isn't involved in specific discipline cases. That's the Secret Service's responsibility. So what we do is we engage in this fact-finding and then hand it over to the Secret Service to do exactly what you suggest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Okay. I am still a little disappointed, not in you, but just in that--it would appear to me that that would be cut and dry.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Let me ask you about the two agents who were involved. When they arrived at that White House complex, the officers that stopped them asked them where are you coming from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. And their answer was?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Secret Service headquarters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. And that turns out to be a blatant lie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. That is not, in fact, true, correct.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Okay. Then what is the consequences of that? Look, we teach our children there are consequences to actions. This was an action. What is the consequence?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Sure. There is a Secret Service table of penalties that talks about the range of consequences for specific things. And I can go through the specific ones with regard to give you an example.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. I appreciate that, and I understand what you are trying to do. But let me ask you this: What is going to happen to them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. There is a process that's in place that the Office of Integrity for the Secret Service runs, which is the deputy of the Office of Integrity will write up, I assume take a look at our report and supporting materials that we have produced, and determine whether or not discipline is warranted. If he does, he will write up what is functionally a charging letter and give that to the individuals who are involved here, Connolly and Ogilvie.    They have due process rights under the law. They have the ability to appeal it to the Integrity officer, as well as, if the consequences are severe enough, to the Merit Systems Protection Board.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Within those written laws, is one of the options to go ahead and retire?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I am not sure. I mean, certainly, you can only discipline people who are Federal employees. If somebody leaves the Federal service, then there is no discipline to impose because the most discipline you can impose is to throw them out of the Federal service.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Does it go on their permanent record?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Yes, it would.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Is that shared with a prospective employer in the future? If one of them goes to get--you know, in the private sector, do you tell them, okay, this is what happened? Or do you just tell them, no, they were employed here from this day to this day?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I am not 100 percent sure. I think in the instance of these two individuals, I think a Google search is going to take care of that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Obviously in this.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. Right. But I am not sure. That's an area of employment that I that I just don't have.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. I understand. But my point is, the concern that I have is just with the general culture that exists in the Secret Service at this time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Roth. I certainly share that concern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mr. Carter. Absolutely. Thank you, Mr. Chairman. I yield back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Chairman Chaffetz. Glad to see Mr. Carter coming in under time. I appreciate it. I will now recognize the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman. And Chairman Chaffetz, I want to thank you particularly for mentioning the valor that is routinely shown by agents of this Secret Service, in particular and especially a young man that you mentioned from Scranton, Pennsylvania, in my district. Today, the U.S. Secret Service is proud to note that its own Sergeant Technician, William Uher, from Scranton was presented by DHS Secretary Jeh Johnson the Secretary's award for valor, which is awarded for displays of exceptional courage. Of course as the chairman mentioned, young Mr. Uher actually pulled an accident victim from the Baltimore-Washington Parkway, an accident, pulled a victim from a burning vehicle. And it was later determined that that victim would have been unable to extricate himself without William Uher's help.    So we are exceptionally proud of William Uher in Pennsylvania today. We are also proud for him coming in 30th in the Scranton half marathon last month, covering 13.1 miles in less than an hour-and-a-half. I wish I could do that.    Mr. Roth, we are here to talk about failures of the Secret Service, though. And it's a dour duty that you have to talk about some of the downsides of things that we've seen in the Secret Service. Your report concludes, ``Both Connolly and Ogilvie had a duty to report the incident to their superiors, but did not do so.'' Is there a policy requiring them to self-report incidents of this nature?</t>
   </si>
   <si>
@@ -745,9 +712,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Mr. Chairman. And thank you, Mr. Roth, for your work. Please thank your staff as well. It was timely, quick. I appreciate your frank and direct answers. I especially appreciate that because that's not always the case. And so I want to give credit where credit is due. I do want to follow up a little bit on some of the questions that have been asked with regard to the policy, the alcohol policy that is either known or unknown. And I think in your testimony you said that really most people are not aware of the DHS policy. Is that correct?</t>
   </si>
   <si>
@@ -799,9 +763,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you very much, Mr. Chairman. Thank you, Mr. Roth. I want to ask you a question. The Secret Service division or component is a component of DHS, right?</t>
   </si>
   <si>
@@ -878,9 +839,6 @@
   </si>
   <si>
     <t>412650</t>
-  </si>
-  <si>
-    <t>Steve Russell</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman. And thank you, Mr. Roth, for your tireless investigations and trying to make our Department of Homeland Security better. It is appreciated. There is a lot of discussion back and forth on this incident about vague Secret Service policy regarding drinking alcohol and driving. I guess my take on it is a little more simple. Would driving through a marked potential crime scene be acceptable performance off duty, either sober or inebriated?</t>
@@ -1399,11 +1357,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1425,11 +1381,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1449,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1477,11 +1429,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1503,11 +1453,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1527,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1555,11 +1501,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1579,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1607,11 +1549,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1631,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1659,11 +1597,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1683,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1711,11 +1645,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1735,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1763,11 +1693,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1787,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1815,11 +1741,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1839,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1867,11 +1789,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1891,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1919,11 +1837,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1943,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1971,11 +1885,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1995,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2023,11 +1933,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2047,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2075,11 +1981,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2099,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2127,11 +2029,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2151,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2179,11 +2077,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2203,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2231,11 +2125,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2255,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2283,11 +2173,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2307,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2333,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2359,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2385,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2411,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2437,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2463,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2489,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2515,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2541,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2567,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2593,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2619,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2645,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2671,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2697,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2723,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2749,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2775,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2801,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2827,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2853,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2879,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2905,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2931,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2957,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2983,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3009,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3035,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3061,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3087,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3113,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3141,11 +2965,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3165,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>77</v>
-      </c>
-      <c r="G70" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3193,11 +3013,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3217,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3243,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3269,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3295,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3321,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>84</v>
-      </c>
-      <c r="H76" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3347,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3373,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3399,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3425,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G80" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3451,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3477,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
-      </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3503,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3529,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>83</v>
-      </c>
-      <c r="G84" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3555,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3581,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
-      </c>
-      <c r="G86" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3607,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3633,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G88" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3659,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3685,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3713,11 +3493,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3737,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3763,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3789,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3817,11 +3589,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3841,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
         <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>106</v>
-      </c>
-      <c r="H96" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3869,11 +3637,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3893,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3919,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3945,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3971,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3997,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4023,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4049,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
+        <v>107</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
         <v>114</v>
-      </c>
-      <c r="H104" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4075,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4101,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4127,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4153,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4179,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4205,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>113</v>
-      </c>
-      <c r="G110" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4231,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4257,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>113</v>
-      </c>
-      <c r="G112" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4283,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4309,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>113</v>
-      </c>
-      <c r="G114" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4335,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4361,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>113</v>
-      </c>
-      <c r="G116" t="s">
-        <v>114</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4389,11 +4117,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4413,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
-      </c>
-      <c r="G118" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4439,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4465,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
-      </c>
-      <c r="G120" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4491,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4517,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>134</v>
-      </c>
-      <c r="G122" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4543,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4569,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4595,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4621,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
         <v>134</v>
-      </c>
-      <c r="G126" t="s">
-        <v>135</v>
-      </c>
-      <c r="H126" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4647,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4673,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
-      </c>
-      <c r="G128" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4701,11 +4405,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4725,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-      <c r="G130" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4751,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4777,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4803,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4829,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>146</v>
-      </c>
-      <c r="G134" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4855,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4881,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>146</v>
-      </c>
-      <c r="G136" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4907,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4933,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>146</v>
-      </c>
-      <c r="G138" t="s">
+        <v>138</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
         <v>147</v>
-      </c>
-      <c r="H138" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4959,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4985,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5011,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5037,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>146</v>
-      </c>
-      <c r="G142" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5063,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5089,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5115,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5141,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>146</v>
-      </c>
-      <c r="G146" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5167,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5193,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>146</v>
-      </c>
-      <c r="G148" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5219,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5245,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>146</v>
-      </c>
-      <c r="G150" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5271,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5297,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>146</v>
-      </c>
-      <c r="G152" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5323,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5349,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>146</v>
-      </c>
-      <c r="G154" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5375,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5401,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>146</v>
-      </c>
-      <c r="G156" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5427,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5453,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>146</v>
-      </c>
-      <c r="G158" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5479,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
-      </c>
-      <c r="G159" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5505,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>146</v>
-      </c>
-      <c r="G160" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5531,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5557,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>146</v>
-      </c>
-      <c r="G162" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5583,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5609,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>146</v>
-      </c>
-      <c r="G164" t="s">
-        <v>147</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5637,11 +5269,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5661,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>183</v>
-      </c>
-      <c r="G166" t="s">
-        <v>184</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5687,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5713,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>183</v>
-      </c>
-      <c r="G168" t="s">
-        <v>184</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5739,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>20</v>
-      </c>
-      <c r="G169" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5765,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>183</v>
-      </c>
-      <c r="G170" t="s">
-        <v>184</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5791,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>20</v>
-      </c>
-      <c r="G171" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5817,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>183</v>
-      </c>
-      <c r="G172" t="s">
-        <v>184</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5845,11 +5461,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5869,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>193</v>
-      </c>
-      <c r="G174" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5895,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5921,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>193</v>
-      </c>
-      <c r="G176" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5947,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5973,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>193</v>
-      </c>
-      <c r="G178" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5999,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6025,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>193</v>
-      </c>
-      <c r="G180" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6051,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6077,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>193</v>
-      </c>
-      <c r="G182" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6103,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6129,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>193</v>
-      </c>
-      <c r="G184" t="s">
+        <v>183</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
         <v>194</v>
-      </c>
-      <c r="H184" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6155,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>20</v>
-      </c>
-      <c r="G185" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6181,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>193</v>
-      </c>
-      <c r="G186" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6207,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>20</v>
-      </c>
-      <c r="G187" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6233,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>193</v>
-      </c>
-      <c r="G188" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6259,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>20</v>
-      </c>
-      <c r="G189" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6285,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>193</v>
-      </c>
-      <c r="G190" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6311,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>20</v>
-      </c>
-      <c r="G191" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6337,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>193</v>
-      </c>
-      <c r="G192" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6363,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>20</v>
-      </c>
-      <c r="G193" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6389,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>193</v>
-      </c>
-      <c r="G194" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6415,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>20</v>
-      </c>
-      <c r="G195" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6441,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>193</v>
-      </c>
-      <c r="G196" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6467,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
-      </c>
-      <c r="G197" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6493,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>193</v>
-      </c>
-      <c r="G198" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6519,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6545,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>193</v>
-      </c>
-      <c r="G200" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6571,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6597,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>193</v>
-      </c>
-      <c r="G202" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6623,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>20</v>
-      </c>
-      <c r="G203" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6649,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>193</v>
-      </c>
-      <c r="G204" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6675,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6701,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>193</v>
-      </c>
-      <c r="G206" t="s">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6729,11 +6277,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6753,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6779,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6805,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6831,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6857,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6883,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6909,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6935,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6961,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>20</v>
-      </c>
-      <c r="G216" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6987,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7013,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7039,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7065,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7093,11 +6613,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7117,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>242</v>
-      </c>
-      <c r="G222" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7143,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
-      </c>
-      <c r="G223" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7169,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>242</v>
-      </c>
-      <c r="G224" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7195,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7221,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>242</v>
-      </c>
-      <c r="G226" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7247,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>20</v>
-      </c>
-      <c r="G227" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7273,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>242</v>
-      </c>
-      <c r="G228" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7299,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>20</v>
-      </c>
-      <c r="G229" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7325,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>242</v>
-      </c>
-      <c r="G230" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7351,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7377,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>242</v>
-      </c>
-      <c r="G232" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7403,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
-      </c>
-      <c r="G233" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7429,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
+        <v>231</v>
+      </c>
+      <c r="G234" t="s"/>
+      <c r="H234" t="s">
         <v>242</v>
-      </c>
-      <c r="G234" t="s">
-        <v>243</v>
-      </c>
-      <c r="H234" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7455,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7481,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>242</v>
-      </c>
-      <c r="G236" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7507,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7533,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>242</v>
-      </c>
-      <c r="G238" t="s">
-        <v>243</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7561,11 +7045,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7585,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>260</v>
-      </c>
-      <c r="G240" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7611,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7637,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>260</v>
-      </c>
-      <c r="G242" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7663,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7689,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>260</v>
-      </c>
-      <c r="G244" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7715,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7741,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>260</v>
-      </c>
-      <c r="G246" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7767,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>20</v>
-      </c>
-      <c r="G247" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7793,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>260</v>
-      </c>
-      <c r="G248" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7819,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7845,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>260</v>
-      </c>
-      <c r="G250" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7871,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>20</v>
-      </c>
-      <c r="G251" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7897,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>260</v>
-      </c>
-      <c r="G252" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7923,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7949,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>260</v>
-      </c>
-      <c r="G254" t="s">
+        <v>248</v>
+      </c>
+      <c r="G254" t="s"/>
+      <c r="H254" t="s">
         <v>261</v>
-      </c>
-      <c r="H254" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7975,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>20</v>
-      </c>
-      <c r="G255" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8001,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>260</v>
-      </c>
-      <c r="G256" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8027,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8053,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>260</v>
-      </c>
-      <c r="G258" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8079,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8105,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>260</v>
-      </c>
-      <c r="G260" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8131,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8157,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>260</v>
-      </c>
-      <c r="G262" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8183,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>20</v>
-      </c>
-      <c r="G263" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8209,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>260</v>
-      </c>
-      <c r="G264" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8235,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>20</v>
-      </c>
-      <c r="G265" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8261,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8287,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8313,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>260</v>
-      </c>
-      <c r="G268" t="s">
-        <v>261</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8341,11 +7765,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8365,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>287</v>
-      </c>
-      <c r="G270" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8391,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8417,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>287</v>
-      </c>
-      <c r="G272" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8443,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8469,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>287</v>
-      </c>
-      <c r="G274" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8495,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8521,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>287</v>
-      </c>
-      <c r="G276" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8547,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>20</v>
-      </c>
-      <c r="G277" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8573,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>287</v>
-      </c>
-      <c r="G278" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8599,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>20</v>
-      </c>
-      <c r="G279" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8625,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>287</v>
-      </c>
-      <c r="G280" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8651,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>20</v>
-      </c>
-      <c r="G281" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8677,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
+        <v>274</v>
+      </c>
+      <c r="G282" t="s"/>
+      <c r="H282" t="s">
         <v>287</v>
-      </c>
-      <c r="G282" t="s">
-        <v>288</v>
-      </c>
-      <c r="H282" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8703,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>20</v>
-      </c>
-      <c r="G283" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8729,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>287</v>
-      </c>
-      <c r="G284" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8755,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>20</v>
-      </c>
-      <c r="G285" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8781,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>287</v>
-      </c>
-      <c r="G286" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8807,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>20</v>
-      </c>
-      <c r="G287" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8833,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>287</v>
-      </c>
-      <c r="G288" t="s">
-        <v>288</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8861,11 +8245,9 @@
       <c r="F289" t="s">
         <v>11</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8885,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>20</v>
-      </c>
-      <c r="G290" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8913,11 +8293,9 @@
       <c r="F291" t="s">
         <v>11</v>
       </c>
-      <c r="G291" t="s">
-        <v>12</v>
-      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8937,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>20</v>
-      </c>
-      <c r="G292" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8965,11 +8341,9 @@
       <c r="F293" t="s">
         <v>11</v>
       </c>
-      <c r="G293" t="s">
-        <v>12</v>
-      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8989,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>20</v>
-      </c>
-      <c r="G294" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9017,11 +8389,9 @@
       <c r="F295" t="s">
         <v>11</v>
       </c>
-      <c r="G295" t="s">
-        <v>12</v>
-      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9041,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>20</v>
-      </c>
-      <c r="G296" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9069,11 +8437,9 @@
       <c r="F297" t="s">
         <v>11</v>
       </c>
-      <c r="G297" t="s">
-        <v>12</v>
-      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9093,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
-      </c>
-      <c r="G298" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9121,11 +8485,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9145,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9173,11 +8533,9 @@
       <c r="F301" t="s">
         <v>11</v>
       </c>
-      <c r="G301" t="s">
-        <v>12</v>
-      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9197,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>20</v>
-      </c>
-      <c r="G302" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9225,11 +8581,9 @@
       <c r="F303" t="s">
         <v>11</v>
       </c>
-      <c r="G303" t="s">
-        <v>12</v>
-      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9249,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>20</v>
-      </c>
-      <c r="G304" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9277,11 +8629,9 @@
       <c r="F305" t="s">
         <v>11</v>
       </c>
-      <c r="G305" t="s">
-        <v>12</v>
-      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9301,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>20</v>
-      </c>
-      <c r="G306" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9329,11 +8677,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9353,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>20</v>
-      </c>
-      <c r="G308" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9381,11 +8725,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9405,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>20</v>
-      </c>
-      <c r="G310" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9433,11 +8773,9 @@
       <c r="F311" t="s">
         <v>11</v>
       </c>
-      <c r="G311" t="s">
-        <v>12</v>
-      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9457,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>15</v>
-      </c>
-      <c r="G312" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9485,11 +8821,9 @@
       <c r="F313" t="s">
         <v>11</v>
       </c>
-      <c r="G313" t="s">
-        <v>12</v>
-      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
